--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H2">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I2">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J2">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.418834</v>
+        <v>3.670249</v>
       </c>
       <c r="N2">
-        <v>0.8376680000000001</v>
+        <v>7.340498</v>
       </c>
       <c r="O2">
-        <v>0.01999457195576304</v>
+        <v>0.1713864621834382</v>
       </c>
       <c r="P2">
-        <v>0.01522668255862029</v>
+        <v>0.1463461480798136</v>
       </c>
       <c r="Q2">
-        <v>1.842264803704</v>
+        <v>20.2561060661245</v>
       </c>
       <c r="R2">
-        <v>7.369059214816001</v>
+        <v>81.02442426449799</v>
       </c>
       <c r="S2">
-        <v>0.0003721965724131024</v>
+        <v>0.004257771672926117</v>
       </c>
       <c r="T2">
-        <v>0.0001977839786570002</v>
+        <v>0.002509259240387619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H3">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I3">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J3">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.475714</v>
       </c>
       <c r="O3">
-        <v>0.0075699822231591</v>
+        <v>0.007404669226450496</v>
       </c>
       <c r="P3">
-        <v>0.008647275611210516</v>
+        <v>0.009484221845389842</v>
       </c>
       <c r="Q3">
-        <v>0.6974848896613333</v>
+        <v>0.8751552679523332</v>
       </c>
       <c r="R3">
-        <v>4.184909337968</v>
+        <v>5.250931607714</v>
       </c>
       <c r="S3">
-        <v>0.0001409143162915193</v>
+        <v>0.0001839549663264785</v>
       </c>
       <c r="T3">
-        <v>0.0001123220746439355</v>
+        <v>0.0001626169982311494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H4">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I4">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J4">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.350429333333333</v>
+        <v>1.788224</v>
       </c>
       <c r="N4">
-        <v>13.051288</v>
+        <v>5.364672000000001</v>
       </c>
       <c r="O4">
-        <v>0.2076836463701503</v>
+        <v>0.08350315876430091</v>
       </c>
       <c r="P4">
-        <v>0.2372393589788917</v>
+        <v>0.1069544713330935</v>
       </c>
       <c r="Q4">
-        <v>19.13560704670934</v>
+        <v>9.869209150112001</v>
       </c>
       <c r="R4">
-        <v>114.813642280256</v>
+        <v>59.215254900672</v>
       </c>
       <c r="S4">
-        <v>0.003866006308924501</v>
+        <v>0.002074477642265316</v>
       </c>
       <c r="T4">
-        <v>0.003081573686995758</v>
+        <v>0.00183384734763891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H5">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I5">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J5">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.410156500000001</v>
+        <v>10.4164255</v>
       </c>
       <c r="N5">
-        <v>14.820313</v>
+        <v>20.832851</v>
       </c>
       <c r="O5">
-        <v>0.3537509069051586</v>
+        <v>0.4864068664121566</v>
       </c>
       <c r="P5">
-        <v>0.2693957528166213</v>
+        <v>0.4153406890609728</v>
       </c>
       <c r="Q5">
-        <v>32.59398833401401</v>
+        <v>57.48825754271274</v>
       </c>
       <c r="R5">
-        <v>130.375953336056</v>
+        <v>229.953030170851</v>
       </c>
       <c r="S5">
-        <v>0.006585030943869579</v>
+        <v>0.01208385627979062</v>
       </c>
       <c r="T5">
-        <v>0.00349926279872463</v>
+        <v>0.0071214546854135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H6">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I6">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J6">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.356882</v>
+        <v>0.7889243333333334</v>
       </c>
       <c r="N6">
-        <v>7.070646</v>
+        <v>2.366773</v>
       </c>
       <c r="O6">
-        <v>0.1125143773911447</v>
+        <v>0.03683972134327332</v>
       </c>
       <c r="P6">
-        <v>0.128526435445043</v>
+        <v>0.04718591462449888</v>
       </c>
       <c r="Q6">
-        <v>10.366877462392</v>
+        <v>4.354073790128834</v>
       </c>
       <c r="R6">
-        <v>62.201264774352</v>
+        <v>26.124442740773</v>
       </c>
       <c r="S6">
-        <v>0.002094441716723422</v>
+        <v>0.0009152130219363287</v>
       </c>
       <c r="T6">
-        <v>0.001669468688734921</v>
+        <v>0.0008090523313472635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.398556</v>
+        <v>5.5190005</v>
       </c>
       <c r="H7">
-        <v>8.797112</v>
+        <v>11.038001</v>
       </c>
       <c r="I7">
-        <v>0.01861488074046137</v>
+        <v>0.02484310381743537</v>
       </c>
       <c r="J7">
-        <v>0.01298930202922164</v>
+        <v>0.01714605593185227</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.252511999999999</v>
+        <v>4.592652</v>
       </c>
       <c r="N7">
-        <v>18.757536</v>
+        <v>13.777956</v>
       </c>
       <c r="O7">
-        <v>0.2984865151546241</v>
+        <v>0.2144591220703805</v>
       </c>
       <c r="P7">
-        <v>0.3409644945896132</v>
+        <v>0.2746885550562314</v>
       </c>
       <c r="Q7">
-        <v>27.502024172672</v>
+        <v>25.346848684326</v>
       </c>
       <c r="R7">
-        <v>165.012145036032</v>
+        <v>152.081092105956</v>
       </c>
       <c r="S7">
-        <v>0.005556290882239243</v>
+        <v>0.005327830234190508</v>
       </c>
       <c r="T7">
-        <v>0.004428890801465393</v>
+        <v>0.004709825328833824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>595.036979</v>
       </c>
       <c r="I8">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J8">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.418834</v>
+        <v>3.670249</v>
       </c>
       <c r="N8">
-        <v>0.8376680000000001</v>
+        <v>7.340498</v>
       </c>
       <c r="O8">
-        <v>0.01999457195576304</v>
+        <v>0.1713864621834382</v>
       </c>
       <c r="P8">
-        <v>0.01522668255862029</v>
+        <v>0.1463461480798136</v>
       </c>
       <c r="Q8">
-        <v>83.07390602082867</v>
+        <v>727.9779590459236</v>
       </c>
       <c r="R8">
-        <v>498.443436124972</v>
+        <v>4367.867754275542</v>
       </c>
       <c r="S8">
-        <v>0.01678359322490132</v>
+        <v>0.1530187451834037</v>
       </c>
       <c r="T8">
-        <v>0.01337811558550827</v>
+        <v>0.1352692428572967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>595.036979</v>
       </c>
       <c r="I9">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J9">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.475714</v>
       </c>
       <c r="O9">
-        <v>0.0075699822231591</v>
+        <v>0.007404669226450496</v>
       </c>
       <c r="P9">
-        <v>0.008647275611210516</v>
+        <v>0.009484221845389842</v>
       </c>
       <c r="Q9">
         <v>31.45193571422288</v>
@@ -1013,10 +1013,10 @@
         <v>283.067421428006</v>
       </c>
       <c r="S9">
-        <v>0.006354299688652071</v>
+        <v>0.006611100894987205</v>
       </c>
       <c r="T9">
-        <v>0.007597469257085722</v>
+        <v>0.008766363344369281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>595.036979</v>
       </c>
       <c r="I10">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J10">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.350429333333333</v>
+        <v>1.788224</v>
       </c>
       <c r="N10">
-        <v>13.051288</v>
+        <v>5.364672000000001</v>
       </c>
       <c r="O10">
-        <v>0.2076836463701503</v>
+        <v>0.08350315876430091</v>
       </c>
       <c r="P10">
-        <v>0.2372393589788917</v>
+        <v>0.1069544713330935</v>
       </c>
       <c r="Q10">
-        <v>862.8887759532169</v>
+        <v>354.6864689117654</v>
       </c>
       <c r="R10">
-        <v>7765.998983578953</v>
+        <v>3192.178220205888</v>
       </c>
       <c r="S10">
-        <v>0.1743312058819133</v>
+        <v>0.07455401325273758</v>
       </c>
       <c r="T10">
-        <v>0.2084377574453807</v>
+        <v>0.09885911277650909</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>595.036979</v>
       </c>
       <c r="I11">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J11">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.410156500000001</v>
+        <v>10.4164255</v>
       </c>
       <c r="N11">
-        <v>14.820313</v>
+        <v>20.832851</v>
       </c>
       <c r="O11">
-        <v>0.3537509069051586</v>
+        <v>0.4864068664121566</v>
       </c>
       <c r="P11">
-        <v>0.2693957528166213</v>
+        <v>0.4153406890609728</v>
       </c>
       <c r="Q11">
-        <v>1469.772379225738</v>
+        <v>2066.052787166188</v>
       </c>
       <c r="R11">
-        <v>8818.634275354429</v>
+        <v>12396.31672299713</v>
       </c>
       <c r="S11">
-        <v>0.2969411567085253</v>
+        <v>0.4342779902143991</v>
       </c>
       <c r="T11">
-        <v>0.2366902643140372</v>
+        <v>0.3839036508597748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>595.036979</v>
       </c>
       <c r="I12">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J12">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.356882</v>
+        <v>0.7889243333333334</v>
       </c>
       <c r="N12">
-        <v>7.070646</v>
+        <v>2.366773</v>
       </c>
       <c r="O12">
-        <v>0.1125143773911447</v>
+        <v>0.03683972134327332</v>
       </c>
       <c r="P12">
-        <v>0.128526435445043</v>
+        <v>0.04718591462449888</v>
       </c>
       <c r="Q12">
-        <v>467.4773150464927</v>
+        <v>156.4797173220852</v>
       </c>
       <c r="R12">
-        <v>4207.295835418434</v>
+        <v>1408.317455898767</v>
       </c>
       <c r="S12">
-        <v>0.09444540979741824</v>
+        <v>0.03289155900085252</v>
       </c>
       <c r="T12">
-        <v>0.1129229234639639</v>
+        <v>0.04361442394304754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>595.036979</v>
       </c>
       <c r="I13">
-        <v>0.8394074782913161</v>
+        <v>0.8928286588915335</v>
       </c>
       <c r="J13">
-        <v>0.878596866651989</v>
+        <v>0.9243102372843056</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.252511999999999</v>
+        <v>4.592652</v>
       </c>
       <c r="N13">
-        <v>18.757536</v>
+        <v>13.777956</v>
       </c>
       <c r="O13">
-        <v>0.2984865151546241</v>
+        <v>0.2144591220703805</v>
       </c>
       <c r="P13">
-        <v>0.3409644945896132</v>
+        <v>0.2746885550562314</v>
       </c>
       <c r="Q13">
-        <v>1240.158617213749</v>
+        <v>910.932590559436</v>
       </c>
       <c r="R13">
-        <v>11161.42755492374</v>
+        <v>8198.393315034924</v>
       </c>
       <c r="S13">
-        <v>0.2505518129899058</v>
+        <v>0.1914752503451535</v>
       </c>
       <c r="T13">
-        <v>0.2995703365860132</v>
+        <v>0.2538974435033083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H14">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I14">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J14">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.418834</v>
+        <v>3.670249</v>
       </c>
       <c r="N14">
-        <v>0.8376680000000001</v>
+        <v>7.340498</v>
       </c>
       <c r="O14">
-        <v>0.01999457195576304</v>
+        <v>0.1713864621834382</v>
       </c>
       <c r="P14">
-        <v>0.01522668255862029</v>
+        <v>0.1463461480798136</v>
       </c>
       <c r="Q14">
-        <v>0.4642141054546667</v>
+        <v>2.003987762824667</v>
       </c>
       <c r="R14">
-        <v>2.785284632728</v>
+        <v>12.023926576948</v>
       </c>
       <c r="S14">
-        <v>9.37861368076172E-05</v>
+        <v>0.0004212321115219128</v>
       </c>
       <c r="T14">
-        <v>7.4756445876504E-05</v>
+        <v>0.0003723710367932717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H15">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I15">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J15">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.475714</v>
       </c>
       <c r="O15">
-        <v>0.0075699822231591</v>
+        <v>0.007404669226450496</v>
       </c>
       <c r="P15">
-        <v>0.008647275611210516</v>
+        <v>0.009484221845389842</v>
       </c>
       <c r="Q15">
-        <v>0.1757523258715555</v>
+        <v>0.08658132228488888</v>
       </c>
       <c r="R15">
-        <v>1.581770932844</v>
+        <v>0.7792319005639999</v>
       </c>
       <c r="S15">
-        <v>3.550760626349882E-05</v>
+        <v>1.819912969579041E-05</v>
       </c>
       <c r="T15">
-        <v>4.245439469299915E-05</v>
+        <v>2.413216588262464E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H16">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I16">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J16">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.350429333333333</v>
+        <v>1.788224</v>
       </c>
       <c r="N16">
-        <v>13.051288</v>
+        <v>5.364672000000001</v>
       </c>
       <c r="O16">
-        <v>0.2076836463701503</v>
+        <v>0.08350315876430091</v>
       </c>
       <c r="P16">
-        <v>0.2372393589788917</v>
+        <v>0.1069544713330935</v>
       </c>
       <c r="Q16">
-        <v>4.821792551027555</v>
+        <v>0.9763858019413335</v>
       </c>
       <c r="R16">
-        <v>43.39613295924801</v>
+        <v>8.787472217472001</v>
       </c>
       <c r="S16">
-        <v>0.0009741567318504963</v>
+        <v>0.0002052333156126903</v>
       </c>
       <c r="T16">
-        <v>0.001164742959013196</v>
+        <v>0.0002721407286938617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H17">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I17">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J17">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.410156500000001</v>
+        <v>10.4164255</v>
       </c>
       <c r="N17">
-        <v>14.820313</v>
+        <v>20.832851</v>
       </c>
       <c r="O17">
-        <v>0.3537509069051586</v>
+        <v>0.4864068664121566</v>
       </c>
       <c r="P17">
-        <v>0.2693957528166213</v>
+        <v>0.4153406890609728</v>
       </c>
       <c r="Q17">
-        <v>8.213037076566334</v>
+        <v>5.687458598687666</v>
       </c>
       <c r="R17">
-        <v>49.27822245939801</v>
+        <v>34.124751592126</v>
       </c>
       <c r="S17">
-        <v>0.001659296884385828</v>
+        <v>0.001195486439169575</v>
       </c>
       <c r="T17">
-        <v>0.001322616987466811</v>
+        <v>0.00105681526324641</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H18">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I18">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J18">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.356882</v>
+        <v>0.7889243333333334</v>
       </c>
       <c r="N18">
-        <v>7.070646</v>
+        <v>2.366773</v>
       </c>
       <c r="O18">
-        <v>0.1125143773911447</v>
+        <v>0.03683972134327332</v>
       </c>
       <c r="P18">
-        <v>0.128526435445043</v>
+        <v>0.04718591462449888</v>
       </c>
       <c r="Q18">
-        <v>2.612247022190667</v>
+        <v>0.4307595233442223</v>
       </c>
       <c r="R18">
-        <v>23.510223199716</v>
+        <v>3.876835710098</v>
       </c>
       <c r="S18">
-        <v>0.0005277576741415702</v>
+        <v>9.054433711745916E-05</v>
       </c>
       <c r="T18">
-        <v>0.0006310093796240509</v>
+        <v>0.0001200623875742929</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.108348666666667</v>
+        <v>0.5460086666666667</v>
       </c>
       <c r="H19">
-        <v>3.325046</v>
+        <v>1.638026</v>
       </c>
       <c r="I19">
-        <v>0.00469057987413355</v>
+        <v>0.002457791042276489</v>
       </c>
       <c r="J19">
-        <v>0.004909568817022596</v>
+        <v>0.002544453965335593</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.252511999999999</v>
+        <v>4.592652</v>
       </c>
       <c r="N19">
-        <v>18.757536</v>
+        <v>13.777956</v>
       </c>
       <c r="O19">
-        <v>0.2984865151546241</v>
+        <v>0.2144591220703805</v>
       </c>
       <c r="P19">
-        <v>0.3409644945896132</v>
+        <v>0.2746885550562314</v>
       </c>
       <c r="Q19">
-        <v>6.929963338517332</v>
+        <v>2.507627794984</v>
       </c>
       <c r="R19">
-        <v>62.36967004665599</v>
+        <v>22.568650154856</v>
       </c>
       <c r="S19">
-        <v>0.001400074840684539</v>
+        <v>0.0005270957091590612</v>
       </c>
       <c r="T19">
-        <v>0.001673988650349035</v>
+        <v>0.0006989323831451324</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H20">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I20">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J20">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.418834</v>
+        <v>3.670249</v>
       </c>
       <c r="N20">
-        <v>0.8376680000000001</v>
+        <v>7.340498</v>
       </c>
       <c r="O20">
-        <v>0.01999457195576304</v>
+        <v>0.1713864621834382</v>
       </c>
       <c r="P20">
-        <v>0.01522668255862029</v>
+        <v>0.1463461480798136</v>
       </c>
       <c r="Q20">
-        <v>11.400903147218</v>
+        <v>63.0563807869655</v>
       </c>
       <c r="R20">
-        <v>45.603612588872</v>
+        <v>252.225523147862</v>
       </c>
       <c r="S20">
-        <v>0.002303348066617074</v>
+        <v>0.01325425879167265</v>
       </c>
       <c r="T20">
-        <v>0.001223991241761894</v>
+        <v>0.007811215326311029</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H21">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I21">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J21">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.475714</v>
       </c>
       <c r="O21">
-        <v>0.0075699822231591</v>
+        <v>0.007404669226450496</v>
       </c>
       <c r="P21">
-        <v>0.008647275611210516</v>
+        <v>0.009484221845389842</v>
       </c>
       <c r="Q21">
-        <v>4.316403188992666</v>
+        <v>2.724320441627666</v>
       </c>
       <c r="R21">
-        <v>25.898419133956</v>
+        <v>16.345922649766</v>
       </c>
       <c r="S21">
-        <v>0.0008720518727090559</v>
+        <v>0.0005726438421318518</v>
       </c>
       <c r="T21">
-        <v>0.0006951080494700976</v>
+        <v>0.0005062196717090209</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H22">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I22">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J22">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.350429333333333</v>
+        <v>1.788224</v>
       </c>
       <c r="N22">
-        <v>13.051288</v>
+        <v>5.364672000000001</v>
       </c>
       <c r="O22">
-        <v>0.2076836463701503</v>
+        <v>0.08350315876430091</v>
       </c>
       <c r="P22">
-        <v>0.2372393589788917</v>
+        <v>0.1069544713330935</v>
       </c>
       <c r="Q22">
-        <v>118.4211966510587</v>
+        <v>30.722420597728</v>
       </c>
       <c r="R22">
-        <v>710.527179906352</v>
+        <v>184.334523586368</v>
       </c>
       <c r="S22">
-        <v>0.02392487953195666</v>
+        <v>0.006457759043999476</v>
       </c>
       <c r="T22">
-        <v>0.01907039806428336</v>
+        <v>0.005708687359772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H23">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I23">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J23">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.410156500000001</v>
+        <v>10.4164255</v>
       </c>
       <c r="N23">
-        <v>14.820313</v>
+        <v>20.832851</v>
       </c>
       <c r="O23">
-        <v>0.3537509069051586</v>
+        <v>0.4864068664121566</v>
       </c>
       <c r="P23">
-        <v>0.2693957528166213</v>
+        <v>0.4153406890609728</v>
       </c>
       <c r="Q23">
-        <v>201.7087355903005</v>
+        <v>178.9584556162422</v>
       </c>
       <c r="R23">
-        <v>806.8349423612021</v>
+        <v>715.8338224649689</v>
       </c>
       <c r="S23">
-        <v>0.0407516334576585</v>
+        <v>0.03761652118457853</v>
       </c>
       <c r="T23">
-        <v>0.0216552778811772</v>
+        <v>0.02216877996860077</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H24">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I24">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J24">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.356882</v>
+        <v>0.7889243333333334</v>
       </c>
       <c r="N24">
-        <v>7.070646</v>
+        <v>2.366773</v>
       </c>
       <c r="O24">
-        <v>0.1125143773911447</v>
+        <v>0.03683972134327332</v>
       </c>
       <c r="P24">
-        <v>0.128526435445043</v>
+        <v>0.04718591462449888</v>
       </c>
       <c r="Q24">
-        <v>64.15568796091399</v>
+        <v>13.55404311118117</v>
       </c>
       <c r="R24">
-        <v>384.934127765484</v>
+        <v>81.32425866708701</v>
       </c>
       <c r="S24">
-        <v>0.0129615064630488</v>
+        <v>0.00284901849467102</v>
       </c>
       <c r="T24">
-        <v>0.01033154994293535</v>
+        <v>0.002518544863236682</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.220577</v>
+        <v>17.1804095</v>
       </c>
       <c r="H25">
-        <v>54.441154</v>
+        <v>34.360819</v>
       </c>
       <c r="I25">
-        <v>0.1151986685042877</v>
+        <v>0.07733550610016304</v>
       </c>
       <c r="J25">
-        <v>0.08038462987914302</v>
+        <v>0.05337492943135737</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.252511999999999</v>
+        <v>4.592652</v>
       </c>
       <c r="N25">
-        <v>18.757536</v>
+        <v>13.777956</v>
       </c>
       <c r="O25">
-        <v>0.2984865151546241</v>
+        <v>0.2144591220703805</v>
       </c>
       <c r="P25">
-        <v>0.3409644945896132</v>
+        <v>0.2746885550562314</v>
       </c>
       <c r="Q25">
-        <v>170.196984339424</v>
+        <v>78.90364205099401</v>
       </c>
       <c r="R25">
-        <v>1021.181906036544</v>
+        <v>473.421852305964</v>
       </c>
       <c r="S25">
-        <v>0.03438524911229759</v>
+        <v>0.01658530474310952</v>
       </c>
       <c r="T25">
-        <v>0.02740830469951512</v>
+        <v>0.01466148224172788</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>2.976810666666667</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H26">
-        <v>8.930432</v>
+        <v>0.291411</v>
       </c>
       <c r="I26">
-        <v>0.01259799251093616</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J26">
-        <v>0.01318615455838528</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.418834</v>
+        <v>3.670249</v>
       </c>
       <c r="N26">
-        <v>0.8376680000000001</v>
+        <v>7.340498</v>
       </c>
       <c r="O26">
-        <v>0.01999457195576304</v>
+        <v>0.1713864621834382</v>
       </c>
       <c r="P26">
-        <v>0.01522668255862029</v>
+        <v>0.1463461480798136</v>
       </c>
       <c r="Q26">
-        <v>1.246789518762667</v>
+        <v>0.356516977113</v>
       </c>
       <c r="R26">
-        <v>7.480737112576</v>
+        <v>2.139101862678</v>
       </c>
       <c r="S26">
-        <v>0.0002518914677580769</v>
+        <v>7.49387804898775E-05</v>
       </c>
       <c r="T26">
-        <v>0.0002007813896294365</v>
+        <v>6.62462111120117E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>2.976810666666667</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H27">
-        <v>8.930432</v>
+        <v>0.291411</v>
       </c>
       <c r="I27">
-        <v>0.01259799251093616</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J27">
-        <v>0.01318615455838528</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.475714</v>
       </c>
       <c r="O27">
-        <v>0.0075699822231591</v>
+        <v>0.007404669226450496</v>
       </c>
       <c r="P27">
-        <v>0.008647275611210516</v>
+        <v>0.009484221845389842</v>
       </c>
       <c r="Q27">
-        <v>0.4720368364942222</v>
+        <v>0.015403143606</v>
       </c>
       <c r="R27">
-        <v>4.248331528447999</v>
+        <v>0.138628292454</v>
       </c>
       <c r="S27">
-        <v>9.53665793552782E-05</v>
+        <v>3.237693775178158E-06</v>
       </c>
       <c r="T27">
-        <v>0.0001140243127183774</v>
+        <v>4.293203277616796E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>2.976810666666667</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H28">
-        <v>8.930432</v>
+        <v>0.291411</v>
       </c>
       <c r="I28">
-        <v>0.01259799251093616</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J28">
-        <v>0.01318615455838528</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.350429333333333</v>
+        <v>1.788224</v>
       </c>
       <c r="N28">
-        <v>13.051288</v>
+        <v>5.364672000000001</v>
       </c>
       <c r="O28">
-        <v>0.2076836463701503</v>
+        <v>0.08350315876430091</v>
       </c>
       <c r="P28">
-        <v>0.2372393589788917</v>
+        <v>0.1069544713330935</v>
       </c>
       <c r="Q28">
-        <v>12.95040444404622</v>
+        <v>0.173702714688</v>
       </c>
       <c r="R28">
-        <v>116.553639996416</v>
+        <v>1.563324432192</v>
       </c>
       <c r="S28">
-        <v>0.002616397021615067</v>
+        <v>3.65117804821228E-05</v>
       </c>
       <c r="T28">
-        <v>0.003128274854827914</v>
+        <v>4.841486147924815E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>2.976810666666667</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H29">
-        <v>8.930432</v>
+        <v>0.291411</v>
       </c>
       <c r="I29">
-        <v>0.01259799251093616</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J29">
-        <v>0.01318615455838528</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.410156500000001</v>
+        <v>10.4164255</v>
       </c>
       <c r="N29">
-        <v>14.820313</v>
+        <v>20.832851</v>
       </c>
       <c r="O29">
-        <v>0.3537509069051586</v>
+        <v>0.4864068664121566</v>
       </c>
       <c r="P29">
-        <v>0.2693957528166213</v>
+        <v>0.4153406890609728</v>
       </c>
       <c r="Q29">
-        <v>22.05863291086934</v>
+        <v>1.0118203237935</v>
       </c>
       <c r="R29">
-        <v>132.351797465216</v>
+        <v>6.070921942760999</v>
       </c>
       <c r="S29">
-        <v>0.004456551275928062</v>
+        <v>0.0002126815439589146</v>
       </c>
       <c r="T29">
-        <v>0.003552294034012525</v>
+        <v>0.0001880114190360223</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>2.976810666666667</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H30">
-        <v>8.930432</v>
+        <v>0.291411</v>
       </c>
       <c r="I30">
-        <v>0.01259799251093616</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J30">
-        <v>0.01318615455838528</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.356882</v>
+        <v>0.7889243333333334</v>
       </c>
       <c r="N30">
-        <v>7.070646</v>
+        <v>2.366773</v>
       </c>
       <c r="O30">
-        <v>0.1125143773911447</v>
+        <v>0.03683972134327332</v>
       </c>
       <c r="P30">
-        <v>0.128526435445043</v>
+        <v>0.04718591462449888</v>
       </c>
       <c r="Q30">
-        <v>7.015991477674667</v>
+        <v>0.076633742967</v>
       </c>
       <c r="R30">
-        <v>63.143923299072</v>
+        <v>0.689703686703</v>
       </c>
       <c r="S30">
-        <v>0.001417455283746286</v>
+        <v>1.610817888344622E-05</v>
       </c>
       <c r="T30">
-        <v>0.001694769442616665</v>
+        <v>2.135955132910727E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>2.976810666666667</v>
+        <v>0.09713699999999999</v>
       </c>
       <c r="H31">
-        <v>8.930432</v>
+        <v>0.291411</v>
       </c>
       <c r="I31">
-        <v>0.01259799251093616</v>
+        <v>0.0004372502911558387</v>
       </c>
       <c r="J31">
-        <v>0.01318615455838528</v>
+        <v>0.0004526679518471688</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.252511999999999</v>
+        <v>4.592652</v>
       </c>
       <c r="N31">
-        <v>18.757536</v>
+        <v>13.777956</v>
       </c>
       <c r="O31">
-        <v>0.2984865151546241</v>
+        <v>0.2144591220703805</v>
       </c>
       <c r="P31">
-        <v>0.3409644945896132</v>
+        <v>0.2746885550562314</v>
       </c>
       <c r="Q31">
-        <v>18.61254441506133</v>
+        <v>0.446116437324</v>
       </c>
       <c r="R31">
-        <v>167.512899735552</v>
+        <v>4.015047935916</v>
       </c>
       <c r="S31">
-        <v>0.003760330882533387</v>
+        <v>9.377231356629941E-05</v>
       </c>
       <c r="T31">
-        <v>0.00449601052458036</v>
+        <v>0.0001243427056131625</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>2.24251</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H32">
-        <v>6.72753</v>
+        <v>1.398032</v>
       </c>
       <c r="I32">
-        <v>0.009490400078864978</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J32">
-        <v>0.009933478064238518</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.418834</v>
+        <v>3.670249</v>
       </c>
       <c r="N32">
-        <v>0.8376680000000001</v>
+        <v>7.340498</v>
       </c>
       <c r="O32">
-        <v>0.01999457195576304</v>
+        <v>0.1713864621834382</v>
       </c>
       <c r="P32">
-        <v>0.01522668255862029</v>
+        <v>0.1463461480798136</v>
       </c>
       <c r="Q32">
-        <v>0.93923943334</v>
+        <v>1.710375183322667</v>
       </c>
       <c r="R32">
-        <v>5.63543660004</v>
+        <v>10.262251099936</v>
       </c>
       <c r="S32">
-        <v>0.000189756487265845</v>
+        <v>0.0003595156434239765</v>
       </c>
       <c r="T32">
-        <v>0.0001512539171871779</v>
+        <v>0.0003178134079130436</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>2.24251</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H33">
-        <v>6.72753</v>
+        <v>1.398032</v>
       </c>
       <c r="I33">
-        <v>0.009490400078864978</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J33">
-        <v>0.009933478064238518</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.475714</v>
       </c>
       <c r="O33">
-        <v>0.0075699822231591</v>
+        <v>0.007404669226450496</v>
       </c>
       <c r="P33">
-        <v>0.008647275611210516</v>
+        <v>0.009484221845389842</v>
       </c>
       <c r="Q33">
-        <v>0.3555978007133332</v>
+        <v>0.07389593276088888</v>
       </c>
       <c r="R33">
-        <v>3.20038020642</v>
+        <v>0.6650633948479999</v>
       </c>
       <c r="S33">
-        <v>7.18421598876756E-05</v>
+        <v>1.553269953399107E-05</v>
       </c>
       <c r="T33">
-        <v>8.589752259938438E-05</v>
+        <v>2.059646192015114E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>2.24251</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H34">
-        <v>6.72753</v>
+        <v>1.398032</v>
       </c>
       <c r="I34">
-        <v>0.009490400078864978</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J34">
-        <v>0.009933478064238518</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.350429333333333</v>
+        <v>1.788224</v>
       </c>
       <c r="N34">
-        <v>13.051288</v>
+        <v>5.364672000000001</v>
       </c>
       <c r="O34">
-        <v>0.2076836463701503</v>
+        <v>0.08350315876430091</v>
       </c>
       <c r="P34">
-        <v>0.2372393589788917</v>
+        <v>0.1069544713330935</v>
       </c>
       <c r="Q34">
-        <v>9.755881284293332</v>
+        <v>0.8333314583893334</v>
       </c>
       <c r="R34">
-        <v>87.80293155864001</v>
+        <v>7.499983125504</v>
       </c>
       <c r="S34">
-        <v>0.001971000893890241</v>
+        <v>0.0001751637292037126</v>
       </c>
       <c r="T34">
-        <v>0.002356611968390828</v>
+        <v>0.000232268259000368</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>2.24251</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H35">
-        <v>6.72753</v>
+        <v>1.398032</v>
       </c>
       <c r="I35">
-        <v>0.009490400078864978</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J35">
-        <v>0.009933478064238518</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.410156500000001</v>
+        <v>10.4164255</v>
       </c>
       <c r="N35">
-        <v>14.820313</v>
+        <v>20.832851</v>
       </c>
       <c r="O35">
-        <v>0.3537509069051586</v>
+        <v>0.4864068664121566</v>
       </c>
       <c r="P35">
-        <v>0.2693957528166213</v>
+        <v>0.4153406890609728</v>
       </c>
       <c r="Q35">
-        <v>16.617350052815</v>
+        <v>4.854165391538666</v>
       </c>
       <c r="R35">
-        <v>99.70410031689001</v>
+        <v>29.124992349232</v>
       </c>
       <c r="S35">
-        <v>0.003357237634791275</v>
+        <v>0.001020330750259837</v>
       </c>
       <c r="T35">
-        <v>0.00267603680120293</v>
+        <v>0.0009019768649013537</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>2.24251</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H36">
-        <v>6.72753</v>
+        <v>1.398032</v>
       </c>
       <c r="I36">
-        <v>0.009490400078864978</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J36">
-        <v>0.009933478064238518</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.356882</v>
+        <v>0.7889243333333334</v>
       </c>
       <c r="N36">
-        <v>7.070646</v>
+        <v>2.366773</v>
       </c>
       <c r="O36">
-        <v>0.1125143773911447</v>
+        <v>0.03683972134327332</v>
       </c>
       <c r="P36">
-        <v>0.128526435445043</v>
+        <v>0.04718591462449888</v>
       </c>
       <c r="Q36">
-        <v>5.28533145382</v>
+        <v>0.3676471545262223</v>
       </c>
       <c r="R36">
-        <v>47.56798308438</v>
+        <v>3.308824390736</v>
       </c>
       <c r="S36">
-        <v>0.001067806456066364</v>
+        <v>7.727830981253999E-05</v>
       </c>
       <c r="T36">
-        <v>0.001276714527168103</v>
+        <v>0.0001024715479639907</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>2.24251</v>
+        <v>0.4660106666666666</v>
       </c>
       <c r="H37">
-        <v>6.72753</v>
+        <v>1.398032</v>
       </c>
       <c r="I37">
-        <v>0.009490400078864978</v>
+        <v>0.002097689857435647</v>
       </c>
       <c r="J37">
-        <v>0.009933478064238518</v>
+        <v>0.002171655435302034</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.252511999999999</v>
+        <v>4.592652</v>
       </c>
       <c r="N37">
-        <v>18.757536</v>
+        <v>13.777956</v>
       </c>
       <c r="O37">
-        <v>0.2984865151546241</v>
+        <v>0.2144591220703805</v>
       </c>
       <c r="P37">
-        <v>0.3409644945896132</v>
+        <v>0.2746885550562314</v>
       </c>
       <c r="Q37">
-        <v>14.02132068512</v>
+        <v>2.140224820288</v>
       </c>
       <c r="R37">
-        <v>126.19188616608</v>
+        <v>19.262023382592</v>
       </c>
       <c r="S37">
-        <v>0.002832756446963577</v>
+        <v>0.0004498687252015905</v>
       </c>
       <c r="T37">
-        <v>0.003386963327690096</v>
+        <v>0.000596528893603127</v>
       </c>
     </row>
   </sheetData>
